--- a/spreadsheets/blocking/OpenTriageBlocking-2023-10-24_12_45.xlsx
+++ b/spreadsheets/blocking/OpenTriageBlocking-2023-10-24_12_45.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovi\IdeaProjects\ChatGPTOracle\spreadsheets\blocking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B228E-0ED6-4523-8AE9-83480105FB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C26CCF-4276-417B-BB4D-DE60C569B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenTriage blocking" sheetId="1" r:id="rId1"/>
@@ -525,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -595,7 +595,7 @@
         <v>0.74231863764564332</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0.78073352214176528</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -694,7 +694,7 @@
         <v>0.91547541643412689</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -727,7 +727,7 @@
         <v>0.8557034668903768</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0.87600740837077684</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -793,7 +793,7 @@
         <v>0.82009963202170111</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0.92076830732292914</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -859,7 +859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -892,7 +892,7 @@
         <v>0.93397145999172182</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -925,7 +925,7 @@
         <v>0.89547124198834505</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0.69547150882207709</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -991,7 +991,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0.86286822723771051</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>0.97378034827473625</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0.77414018306271215</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>0.69058104080045779</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0.90266319689408869</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>0.93663641849781287</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>0.90471641785324775</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0.89244994454697502</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0.75323828435161699</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0.93554640940813938</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>0.93913500920733928</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>0.95851771004901687</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>0.79649091345762379</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0.46616762512768978</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>0.82463866244093709</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>0.95131855460977899</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>0.91421103572297469</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0.73411805754940507</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>0.91789193897519761</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0.95585807601326733</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>0.99664187106356728</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0.8191945714763248</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1814,6 +1814,12 @@
       <c r="I39">
         <f t="shared" si="3"/>
         <v>0.92089199675495803</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f>AVERAGE(H2:H39)</f>
+        <v>0.90085122792435279</v>
       </c>
     </row>
   </sheetData>
